--- a/biology/Histoire de la zoologie et de la botanique/Jules-César_Savigny/Jules-César_Savigny.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jules-César_Savigny/Jules-César_Savigny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jules-C%C3%A9sar_Savigny</t>
+          <t>Jules-César_Savigny</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie Jules César Lelorgne de Savigny (ou Lelorgue de Savigny), né le 5 avril 1777 à Provins et mort le 5 octobre 1851 à Gally (située sur la commune de Versailles)[1], est un zoologiste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie Jules César Lelorgne de Savigny (ou Lelorgue de Savigny), né le 5 avril 1777 à Provins et mort le 5 octobre 1851 à Gally (située sur la commune de Versailles), est un zoologiste français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jules-C%C3%A9sar_Savigny</t>
+          <t>Jules-César_Savigny</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait paraître en 1805 son Histoire naturelle et mythologique de l'ibis et entre 1816 et 1820 un important Mémoires sur les animaux sans vertèbres.
 Il participe à la campagne d'Égypte comme zoologiste spécialisé sur les invertébrés (1798–1802). Membre de l'Institut d'Égypte le 22 août 1798 dans la section de physique.
-Il fait la campagne de Syrie, voyageant à pied pour ramasser tous les insectes et serpents qu'il trouve sur sa route[2].
-À son retour, il publie entre 1809 et 1813 une cinquantaine de planches sur les insectes récoltés durant cette campagne. Toutefois, devenu aveugle, Savigny ne peut écrire les textes devant les accompagner. Victor Audouin accepte de terminer le travail, mais Savigny refuse de se séparer des planches originales. Il publie par ailleurs en 1811 un in-folio de 72 pages et 14 planches intitulé Système des oiseaux de l'Égypte et de la Syrie[3].
+Il fait la campagne de Syrie, voyageant à pied pour ramasser tous les insectes et serpents qu'il trouve sur sa route.
+À son retour, il publie entre 1809 et 1813 une cinquantaine de planches sur les insectes récoltés durant cette campagne. Toutefois, devenu aveugle, Savigny ne peut écrire les textes devant les accompagner. Victor Audouin accepte de terminer le travail, mais Savigny refuse de se séparer des planches originales. Il publie par ailleurs en 1811 un in-folio de 72 pages et 14 planches intitulé Système des oiseaux de l'Égypte et de la Syrie.
 Il est élu membre de l'Académie des sciences le 30 juillet 1821.
 Membre de plusieurs académies étrangères : Amsterdam, Édimbourg, Oxford.
-Atteint d'ophtalmie dans la vallée du Nil, il est frappé en 1817 et 1824 par une grave maladie des yeux qui l'oblige à rester dans l'obscurité. Sujet à des hallucinations, il doit d'abord suspendre ses activités, puis les arrêter complètement[4].
+Atteint d'ophtalmie dans la vallée du Nil, il est frappé en 1817 et 1824 par une grave maladie des yeux qui l'oblige à rester dans l'obscurité. Sujet à des hallucinations, il doit d'abord suspendre ses activités, puis les arrêter complètement.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jules-C%C3%A9sar_Savigny</t>
+          <t>Jules-César_Savigny</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreuses espèces animales portent son nom :
 Argiope savignyi Levi, 1968
